--- a/pure4j-examples/src/test/resources/org/pure4j/examples/var_model/ConcordionVarWorkingOut.xlsx
+++ b/pure4j-examples/src/test/resources/org/pure4j/examples/var_model/ConcordionVarWorkingOut.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="23720" windowHeight="15160" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="23720" windowHeight="15160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Three-Share Example" sheetId="1" r:id="rId1"/>
@@ -3129,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="97" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4289,7 +4289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
